--- a/Tarea1/AnalisisDeResultados.xlsx
+++ b/Tarea1/AnalisisDeResultados.xlsx
@@ -5,19 +5,21 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="198" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="182" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Hoja2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Hoja3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Hoja4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Hoja5" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>K1</t>
   </si>
@@ -28,7 +30,7 @@
     <t>K2</t>
   </si>
   <si>
-    <t>Comparación</t>
+    <t>Suma-resta</t>
   </si>
   <si>
     <t>K3</t>
@@ -40,7 +42,7 @@
     <t>K4</t>
   </si>
   <si>
-    <t>Suma-resta</t>
+    <t>Comparación</t>
   </si>
   <si>
     <t>K5</t>
@@ -114,6 +116,9 @@
   <si>
     <t>n20</t>
   </si>
+  <si>
+    <t>comparación</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +127,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -145,29 +150,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -283,7 +266,7 @@
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF004586"/>
@@ -299,28 +282,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>InserctionSort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -329,6 +294,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InserctionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -412,98 +388,240 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4507495</c:v>
+                  <c:v>7005995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18014995</c:v>
+                  <c:v>28011995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40522495</c:v>
+                  <c:v>63017995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72029995</c:v>
+                  <c:v>112023995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112537495</c:v>
+                  <c:v>175029995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162044995</c:v>
+                  <c:v>252035995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220552495</c:v>
+                  <c:v>343041995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>288059995</c:v>
+                  <c:v>448047995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>364567495</c:v>
+                  <c:v>567053995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450074995</c:v>
+                  <c:v>700059995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>544582495</c:v>
+                  <c:v>847065995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>648089995</c:v>
+                  <c:v>1008071995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>760597492</c:v>
+                  <c:v>1183077995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>882104995</c:v>
+                  <c:v>1372083995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1012612495</c:v>
+                  <c:v>1575089995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1152119995</c:v>
+                  <c:v>1792095995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1300627495</c:v>
+                  <c:v>2023101995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1458134995</c:v>
+                  <c:v>2268107995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1624642495</c:v>
+                  <c:v>2527113995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1800149995</c:v>
+                  <c:v>2800119995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4012992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16025992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36038992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64051992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100064992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>144077992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>196090992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>256103992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324116992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>400129992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>484142992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>576155992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>676168992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>784181992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>900194992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1024207992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1156220992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1296233992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1444246992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1600259992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="20394881"/>
-        <c:axId val="27522631"/>
+        <c:axId val="89204189"/>
+        <c:axId val="7556734"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="20394881"/>
+        <c:axId val="89204189"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>valores N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -514,14 +632,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27522631"/>
+        <c:crossAx val="7556734"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="27522631"/>
+        <c:axId val="7556734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,24 +654,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Resultado</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -564,907 +664,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="20394881"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>Selection Sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja1!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>n1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>n2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>n3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>n4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>n5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>n6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>n7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>n8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>n9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>n10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>n11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>n12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>n13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>n15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>n16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>n17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>n18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>n19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>n20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$D$7:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>3510491</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14020991</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31531491</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>56041991</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>87552491</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126062991</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>171573491</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>224083991</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>283594491</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>350104991</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>423615491</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>504125991</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>591636491</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>686146991</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>787657491</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>896167991</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1011678491</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1134188991</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1263699491</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1400209991</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="99481845"/>
-        <c:axId val="63814157"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="99481845"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Valores de N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="63814157"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="63814157"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Resultados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="99481845"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="1" sz="1300"/>
-              <a:t>InserctionSort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja2!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>n1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>n2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>n3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>n4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>n5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>n6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>n7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>n8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>n9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>n10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>n11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>n12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>n13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>n15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>n16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>n17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>n18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>n19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>n20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$C$7:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>6019988</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>24039988</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>54059988</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>96079988</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>150099988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>216119988</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>294139988</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>384159988</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>486179988</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>600199988</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>726219988</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>864239988</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1014259988</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1176279988</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1350299988</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1536319988</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1734339988</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1944359988</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2166379988</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2400399988</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="46737855"/>
-        <c:axId val="42560632"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="46737855"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Resultados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="42560632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="42560632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="1" sz="900"/>
-                  <a:t>Valores de N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="46737855"/>
-        <c:crossesAt val="0"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300"/>
-              <a:t>Selection Sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Hoja2!$A$7:$A$26</c:f>
-              <c:strCache>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>n1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>n2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>n3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>n4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>n5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>n6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>n7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>n8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>n9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>n10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>n11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>n12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>n13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>n14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>n15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>n16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>n17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>n18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>n19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>n20</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja2!$D$7:$D$26</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="20"/>
-                <c:pt idx="0">
-                  <c:v>6512490</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>26024990</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>58537490</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>104049990</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>162562490</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>234074990</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>318587490</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>416099990</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>526612490</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>650124990</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>786637490</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>936149990</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1098662490</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1274174990</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1462687490</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1664199990</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1878712490</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2106224990</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2346737490</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2600249990</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:gapWidth val="100"/>
-        <c:axId val="41306509"/>
-        <c:axId val="36231153"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="41306509"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Valores N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="36231153"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="36231153"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Resultados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:crossAx val="41306509"/>
+        <c:crossAx val="89204189"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1503,24 +703,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300"/>
-              <a:t>Inserction Sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1529,6 +711,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InserctionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1539,7 +732,7 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja3!$A$7:$A$26</c:f>
+              <c:f>Hoja2!$A$7:$A$26</c:f>
               <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
@@ -1607,103 +800,245 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja3!$C$7:$C$26</c:f>
+              <c:f>Hoja2!$C$7:$C$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>5014983</c:v>
+                  <c:v>8005995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20029983</c:v>
+                  <c:v>32011995</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45044983</c:v>
+                  <c:v>72017995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80059983</c:v>
+                  <c:v>128023995</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125074983</c:v>
+                  <c:v>200029995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>180089983</c:v>
+                  <c:v>288035995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>245104983</c:v>
+                  <c:v>392041995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>320119983</c:v>
+                  <c:v>512047995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>405134983</c:v>
+                  <c:v>648053995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>500149983</c:v>
+                  <c:v>800059995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>605164983</c:v>
+                  <c:v>968065995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>720179983</c:v>
+                  <c:v>1152071995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>845194983</c:v>
+                  <c:v>1352077995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>980209983</c:v>
+                  <c:v>1568083995</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1125224983</c:v>
+                  <c:v>1800089995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1280239983</c:v>
+                  <c:v>2048095995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1445254983</c:v>
+                  <c:v>2312101995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1620269983</c:v>
+                  <c:v>2592107995</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1805284983</c:v>
+                  <c:v>2888113995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2000299983</c:v>
+                  <c:v>3200119995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4514492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18028992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40543492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>72057992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>112572492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>162086992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>220601492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>288115992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>364630492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>450144992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>544659492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>648173992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>760688492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>882202992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1012717492</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1152231992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1300746492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1458260992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1624775492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1800289992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="91103130"/>
-        <c:axId val="26515746"/>
+        <c:axId val="46861450"/>
+        <c:axId val="11983042"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="91103130"/>
+        <c:axId val="46861450"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Valores N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1714,14 +1049,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="26515746"/>
+        <c:crossAx val="11983042"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="26515746"/>
+        <c:axId val="11983042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,24 +1071,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Resultados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1764,7 +1081,7 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="91103130"/>
+        <c:crossAx val="46861450"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -1803,24 +1120,6 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr sz="1300"/>
-              <a:t>Selection Sort</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1829,6 +1128,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InserctionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:srgbClr val="004586"/>
@@ -1907,103 +1217,245 @@
           </c:cat>
           <c:val>
             <c:numRef>
+              <c:f>Hoja3!$C$7:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>7508493</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30016993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67525493</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>120033993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187542493</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>270050993</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>367559493</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>480067993</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>607576493</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>750084993</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>907593493</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1080101993</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1267610493</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1470118993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1687627493</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1920135993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2167644493</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2430152993</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2707661493</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3000169993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
               <c:f>Hoja3!$D$7:$D$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>4523488</c:v>
+                  <c:v>4016988</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18046988</c:v>
+                  <c:v>16033988</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>40570488</c:v>
+                  <c:v>36050988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>72093988</c:v>
+                  <c:v>64067988</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>112617488</c:v>
+                  <c:v>100084988</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>162140988</c:v>
+                  <c:v>144101988</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>220664488</c:v>
+                  <c:v>196118988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>288187988</c:v>
+                  <c:v>256135988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>364711488</c:v>
+                  <c:v>324152988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>450234988</c:v>
+                  <c:v>400169988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>544758488</c:v>
+                  <c:v>484186988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>648281988</c:v>
+                  <c:v>576203988</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>760805488</c:v>
+                  <c:v>676220988</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>882328988</c:v>
+                  <c:v>784237988</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1012852488</c:v>
+                  <c:v>900254988</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1152375988</c:v>
+                  <c:v>1024271988</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1300899488</c:v>
+                  <c:v>1156288988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1458422988</c:v>
+                  <c:v>1296305988</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1624946488</c:v>
+                  <c:v>1444322988</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1800469988</c:v>
+                  <c:v>1600339988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="100"/>
-        <c:axId val="41020635"/>
-        <c:axId val="18586521"/>
+        <c:axId val="39856680"/>
+        <c:axId val="64950983"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41020635"/>
+        <c:axId val="39856680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Valores N</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2014,14 +1466,14 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="18586521"/>
+        <c:crossAx val="64950983"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="18586521"/>
+        <c:axId val="64950983"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,24 +1488,6 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr sz="900"/>
-                  <a:t>Resultados</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2064,7 +1498,841 @@
             </a:solidFill>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="41020635"/>
+        <c:crossAx val="39856680"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja4!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InserctionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja4!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja4!$C$7:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>8508495</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34016995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76525495</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>136033995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>212542495</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>306050995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>416559495</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>544067995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>688576495</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>850084995</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1028593495</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1224101995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1436610495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1666118995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1912627495</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2176135995</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2456644495</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2754152995</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3068661495</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3400169995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja4!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja4!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja4!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>5013992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20027992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45041992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80055992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125069992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>180083992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245097992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>320111992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>405125992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>500139992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>605153992</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>720167992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>845181992</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>980195992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1125209992</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1280223992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1445237992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1620251992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1805265992</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2000279992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="86695559"/>
+        <c:axId val="41453928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="86695559"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="41453928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="41453928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="86695559"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja5!$C$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>InserctionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja5!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$C$7:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>9512492</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38024992</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85537492</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>152049992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>237562492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>342074992</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>465587492</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>608099992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>769612492</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>950124992</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1149637492</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1368149992</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1605662492</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1862174992</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2137687492</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2432199992</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2745712492</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3078224992</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3429737492</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3800249992</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja5!$D$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SelectionSort</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja5!$A$7:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>n1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>n2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>n3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>n4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>n5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>n6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>n7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>n8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>n9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>n10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>n11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>n12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>n13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>n14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>n15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>n16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>n17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>n18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>n19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>n20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja5!$D$7:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>6519488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26038988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58558488</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104077988</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>162597488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>234116988</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>318636488</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>416155988</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>526675488</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>650194988</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>786714488</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>936233988</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1098753488</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1274272988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1462792488</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1664311988</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1878831488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2106350988</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2346870488</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2600389988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:axId val="65893310"/>
+        <c:axId val="71559558"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65893310"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="71559558"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71559558"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="65893310"/>
         <c:crosses val="autoZero"/>
       </c:valAx>
       <c:spPr>
@@ -2103,16 +2371,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>67680</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>382320</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>456480</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2120,42 +2388,12 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="998280" y="4294080"/>
-        <a:ext cx="8960400" cy="4618080"/>
+        <a:off x="2007720" y="4596840"/>
+        <a:ext cx="7646040" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="968760" y="8960760"/>
-        <a:ext cx="9029880" cy="3537360"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2168,59 +2406,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>661680</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133920</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>202680</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>710640</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>95400</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>100440</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>62640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name=""/>
+        <xdr:cNvPr id="1" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1474200" y="4848120"/>
-        <a:ext cx="7433640" cy="4512960"/>
+        <a:off x="1828080" y="4463280"/>
+        <a:ext cx="7587000" cy="3239640"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name=""/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="1665000" y="10595520"/>
-        <a:ext cx="7166160" cy="3489480"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2233,25 +2441,25 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>21960</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228960</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>625680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvPr id="2" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1675080" y="4580280"/>
-        <a:ext cx="7622640" cy="3499920"/>
+        <a:off x="2705760" y="4886280"/>
+        <a:ext cx="8047440" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2261,31 +2469,71 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:colOff>624240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>367200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>9360</xdr:rowOff>
+      <xdr:colOff>160200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name=""/>
+        <xdr:cNvPr id="3" name=""/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="1793880" y="8309160"/>
-        <a:ext cx="7642080" cy="3241800"/>
+        <a:off x="2249640" y="4599360"/>
+        <a:ext cx="7303320" cy="3241800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1020240</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>784800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>133920</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2645640" y="4532400"/>
+        <a:ext cx="7610760" cy="3241800"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2301,15 +2549,16 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="12.3673469387755"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2383,10 +2632,10 @@
         <v>1000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4507495</v>
+        <v>7005995</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>3510491</v>
+        <v>4012992</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2397,10 +2646,10 @@
         <v>2000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>18014995</v>
+        <v>28011995</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>14020991</v>
+        <v>16025992</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2411,10 +2660,10 @@
         <v>3000</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>40522495</v>
+        <v>63017995</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>31531491</v>
+        <v>36038992</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2425,10 +2674,10 @@
         <v>4000</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>72029995</v>
+        <v>112023995</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>56041991</v>
+        <v>64051992</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2439,10 +2688,10 @@
         <v>5000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>112537495</v>
+        <v>175029995</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>87552491</v>
+        <v>100064992</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2453,10 +2702,10 @@
         <v>6000</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>162044995</v>
+        <v>252035995</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>126062991</v>
+        <v>144077992</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2467,10 +2716,10 @@
         <v>7000</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>220552495</v>
+        <v>343041995</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>171573491</v>
+        <v>196090992</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2481,10 +2730,10 @@
         <v>8000</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>288059995</v>
+        <v>448047995</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>224083991</v>
+        <v>256103992</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2495,10 +2744,10 @@
         <v>9000</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>364567495</v>
+        <v>567053995</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>283594491</v>
+        <v>324116992</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2509,10 +2758,10 @@
         <v>10000</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>450074995</v>
+        <v>700059995</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>350104991</v>
+        <v>400129992</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,10 +2772,10 @@
         <v>11000</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>544582495</v>
+        <v>847065995</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>423615491</v>
+        <v>484142992</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2537,10 +2786,10 @@
         <v>12000</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>648089995</v>
+        <v>1008071995</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>504125991</v>
+        <v>576155992</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2551,10 +2800,10 @@
         <v>13000</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>760597492</v>
+        <v>1183077995</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>591636491</v>
+        <v>676168992</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,10 +2814,10 @@
         <v>14000</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>882104995</v>
+        <v>1372083995</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>686146991</v>
+        <v>784181992</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2579,10 +2828,10 @@
         <v>15000</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1012612495</v>
+        <v>1575089995</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>787657491</v>
+        <v>900194992</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2593,10 +2842,10 @@
         <v>16000</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1152119995</v>
+        <v>1792095995</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>896167991</v>
+        <v>1024207992</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,10 +2856,10 @@
         <v>17000</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1300627495</v>
+        <v>2023101995</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1011678491</v>
+        <v>1156220992</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2621,10 +2870,10 @@
         <v>18000</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1458134995</v>
+        <v>2268107995</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1134188991</v>
+        <v>1296233992</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2635,10 +2884,10 @@
         <v>19000</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1624642495</v>
+        <v>2527113995</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1263699491</v>
+        <v>1444246992</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2649,10 +2898,10 @@
         <v>20000</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>1800149995</v>
+        <v>2800119995</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1400209991</v>
+        <v>1600259992</v>
       </c>
     </row>
   </sheetData>
@@ -2675,12 +2924,13 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G86" activeCellId="0" sqref="G86"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.8367346938776"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.5"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
@@ -2756,10 +3006,10 @@
         <v>1000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>6019988</v>
+        <v>8005995</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>6512490</v>
+        <v>4514492</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2770,10 +3020,10 @@
         <v>2000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>24039988</v>
+        <v>32011995</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>26024990</v>
+        <v>18028992</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2784,10 +3034,10 @@
         <v>3000</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>54059988</v>
+        <v>72017995</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>58537490</v>
+        <v>40543492</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,10 +3048,10 @@
         <v>4000</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>96079988</v>
+        <v>128023995</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>104049990</v>
+        <v>72057992</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2812,10 +3062,10 @@
         <v>5000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>150099988</v>
+        <v>200029995</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>162562490</v>
+        <v>112572492</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2826,10 +3076,10 @@
         <v>6000</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>216119988</v>
+        <v>288035995</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>234074990</v>
+        <v>162086992</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2840,10 +3090,10 @@
         <v>7000</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>294139988</v>
+        <v>392041995</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>318587490</v>
+        <v>220601492</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2854,10 +3104,10 @@
         <v>8000</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>384159988</v>
+        <v>512047995</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>416099990</v>
+        <v>288115992</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2868,10 +3118,10 @@
         <v>9000</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>486179988</v>
+        <v>648053995</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>526612490</v>
+        <v>364630492</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2882,10 +3132,10 @@
         <v>10000</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>600199988</v>
+        <v>800059995</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>650124990</v>
+        <v>450144992</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2896,10 +3146,10 @@
         <v>11000</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>726219988</v>
+        <v>968065995</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>786637490</v>
+        <v>544659492</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2910,10 +3160,10 @@
         <v>12000</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>864239988</v>
+        <v>1152071995</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>936149990</v>
+        <v>648173992</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2924,10 +3174,10 @@
         <v>13000</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>1014259988</v>
+        <v>1352077995</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>1098662490</v>
+        <v>760688492</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2938,10 +3188,10 @@
         <v>14000</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>1176279988</v>
+        <v>1568083995</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>1274174990</v>
+        <v>882202992</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,10 +3202,10 @@
         <v>15000</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1350299988</v>
+        <v>1800089995</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>1462687490</v>
+        <v>1012717492</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2966,10 +3216,10 @@
         <v>16000</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1536319988</v>
+        <v>2048095995</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>1664199990</v>
+        <v>1152231992</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2980,10 +3230,10 @@
         <v>17000</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1734339988</v>
+        <v>2312101995</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>1878712490</v>
+        <v>1300746492</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2994,10 +3244,10 @@
         <v>18000</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1944359988</v>
+        <v>2592107995</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2106224990</v>
+        <v>1458260992</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3008,10 +3258,10 @@
         <v>19000</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>2166379988</v>
+        <v>2888113995</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>2346737490</v>
+        <v>1624775492</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3022,10 +3272,10 @@
         <v>20000</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2400399988</v>
+        <v>3200119995</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2600249990</v>
+        <v>1800289992</v>
       </c>
     </row>
   </sheetData>
@@ -3047,13 +3297,14 @@
   </sheetPr>
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H28" activeCellId="0" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="3" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.3367346938776"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
   </cols>
@@ -3096,7 +3347,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>1</v>
@@ -3129,10 +3380,10 @@
         <v>1000</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>5014983</v>
+        <v>7508493</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>4523488</v>
+        <v>4016988</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3143,10 +3394,10 @@
         <v>2000</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>20029983</v>
+        <v>30016993</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>18046988</v>
+        <v>16033988</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3157,10 +3408,10 @@
         <v>3000</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>45044983</v>
+        <v>67525493</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>40570488</v>
+        <v>36050988</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3171,10 +3422,10 @@
         <v>4000</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>80059983</v>
+        <v>120033993</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>72093988</v>
+        <v>64067988</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3185,10 +3436,10 @@
         <v>5000</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>125074983</v>
+        <v>187542493</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>112617488</v>
+        <v>100084988</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3199,10 +3450,10 @@
         <v>6000</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>180089983</v>
+        <v>270050993</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>162140988</v>
+        <v>144101988</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3213,10 +3464,10 @@
         <v>7000</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>245104983</v>
+        <v>367559493</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>220664488</v>
+        <v>196118988</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3227,10 +3478,10 @@
         <v>8000</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>320119983</v>
+        <v>480067993</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>288187988</v>
+        <v>256135988</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3241,10 +3492,10 @@
         <v>9000</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>405134983</v>
+        <v>607576493</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>364711488</v>
+        <v>324152988</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3255,10 +3506,10 @@
         <v>10000</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>500149983</v>
+        <v>750084993</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>450234988</v>
+        <v>400169988</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3269,10 +3520,10 @@
         <v>11000</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>605164983</v>
+        <v>907593493</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>544758488</v>
+        <v>484186988</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3283,10 +3534,10 @@
         <v>12000</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>720179983</v>
+        <v>1080101993</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>648281988</v>
+        <v>576203988</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3297,10 +3548,10 @@
         <v>13000</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>845194983</v>
+        <v>1267610493</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>760805488</v>
+        <v>676220988</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,10 +3562,10 @@
         <v>14000</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>980209983</v>
+        <v>1470118993</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>882328988</v>
+        <v>784237988</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3325,10 +3576,10 @@
         <v>15000</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>1125224983</v>
+        <v>1687627493</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>1012852488</v>
+        <v>900254988</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3339,10 +3590,10 @@
         <v>16000</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>1280239983</v>
+        <v>1920135993</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>1152375988</v>
+        <v>1024271988</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3353,10 +3604,10 @@
         <v>17000</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>1445254983</v>
+        <v>2167644493</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>1300899488</v>
+        <v>1156288988</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3367,10 +3618,10 @@
         <v>18000</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>1620269983</v>
+        <v>2430152993</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>1458422988</v>
+        <v>1296305988</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3381,10 +3632,10 @@
         <v>19000</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>1805284983</v>
+        <v>2707661493</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>1624946488</v>
+        <v>1444322988</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3395,10 +3646,758 @@
         <v>20000</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>2000299983</v>
+        <v>3000169993</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>1800469988</v>
+        <v>1600339988</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.280612244898"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.1632653061225"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>8508495</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>5013992</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>34016995</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>20027992</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>76525495</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>45041992</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>136033995</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>80055992</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>212542495</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>125069992</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>306050995</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>180083992</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>416559495</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>245097992</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>544067995</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>320111992</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>688576495</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>405125992</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>850084995</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>500139992</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>11000</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1028593495</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>605153992</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1224101995</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>720167992</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1436610495</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>845181992</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1666118995</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>980195992</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>1912627495</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1125209992</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2176135995</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1280223992</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>17000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2456644495</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1445237992</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2754152995</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>1620251992</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>19000</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3068661495</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>1805265992</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3400169995</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2000279992</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Página &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J17" activeCellId="0" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.5867346938776"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.9744897959184"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>9512492</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>6519488</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>38024992</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>26038988</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>85537492</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>58558488</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>4000</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>152049992</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>104077988</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>5000</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>237562492</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>162597488</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>6000</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>342074992</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>234116988</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>7000</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>465587492</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>318636488</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>8000</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>608099992</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>416155988</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>9000</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>769612492</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>526675488</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>10000</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>950124992</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>650194988</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>11000</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>1149637492</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>786714488</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>12000</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>1368149992</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>936233988</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>13000</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>1605662492</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>1098753488</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>14000</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>1862174992</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>1274272988</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>15000</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2137687492</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>1462792488</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>16000</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>2432199992</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>1664311988</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>17000</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>2745712492</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>1878831488</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>18000</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>3078224992</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>2106350988</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>19000</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3429737492</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>2346870488</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>20000</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>3800249992</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>2600389988</v>
       </c>
     </row>
   </sheetData>
